--- a/data/Scaling_Surface_Template.xlsx
+++ b/data/Scaling_Surface_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://honehealthltd-my.sharepoint.com/personal/ryan_sava_health/Documents/Documents/OwnGithubClones/mfg-scaling-map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_01C93014864B12F28AB50F7073AEB5E508187259" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90FBDE36-74A1-40EF-8A69-0076750D8840}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_01C93014864B12F28AB50F7073AEB5E508187259" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{160EA099-DE45-46B8-9C2F-8414FF60AF72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="266">
   <si>
     <t>Process_ID</t>
   </si>
@@ -797,78 +797,6 @@
     <t>LOT-QA_REL_04-5</t>
   </si>
   <si>
-    <t>QA_RCA_05</t>
-  </si>
-  <si>
-    <t>Root Cause Record</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>LOT-QA_RCA_05-1</t>
-  </si>
-  <si>
-    <t>LOT-QA_RCA_05-2</t>
-  </si>
-  <si>
-    <t>LOT-QA_RCA_05-3</t>
-  </si>
-  <si>
-    <t>LOT-QA_RCA_05-4</t>
-  </si>
-  <si>
-    <t>LOT-QA_RCA_05-5</t>
-  </si>
-  <si>
-    <t>QA_AUD_06</t>
-  </si>
-  <si>
-    <t>Internal Audit</t>
-  </si>
-  <si>
-    <t>Audit</t>
-  </si>
-  <si>
-    <t>LOT-QA_AUD_06-1</t>
-  </si>
-  <si>
-    <t>LOT-QA_AUD_06-2</t>
-  </si>
-  <si>
-    <t>LOT-QA_AUD_06-3</t>
-  </si>
-  <si>
-    <t>LOT-QA_AUD_06-4</t>
-  </si>
-  <si>
-    <t>LOT-QA_AUD_06-5</t>
-  </si>
-  <si>
-    <t>QA_DOC_07</t>
-  </si>
-  <si>
-    <t>Document Review</t>
-  </si>
-  <si>
-    <t>Docs</t>
-  </si>
-  <si>
-    <t>LOT-QA_DOC_07-1</t>
-  </si>
-  <si>
-    <t>LOT-QA_DOC_07-2</t>
-  </si>
-  <si>
-    <t>LOT-QA_DOC_07-3</t>
-  </si>
-  <si>
-    <t>LOT-QA_DOC_07-4</t>
-  </si>
-  <si>
-    <t>LOT-QA_DOC_07-5</t>
-  </si>
-  <si>
     <t>QA_SIG_08</t>
   </si>
   <si>
@@ -891,288 +819,6 @@
   </si>
   <si>
     <t>LOT-QA_SIG_08-5</t>
-  </si>
-  <si>
-    <t>QA_VER_09</t>
-  </si>
-  <si>
-    <t>Verification Matrix</t>
-  </si>
-  <si>
-    <t>Verification</t>
-  </si>
-  <si>
-    <t>LOT-QA_VER_09-1</t>
-  </si>
-  <si>
-    <t>LOT-QA_VER_09-2</t>
-  </si>
-  <si>
-    <t>LOT-QA_VER_09-3</t>
-  </si>
-  <si>
-    <t>LOT-QA_VER_09-4</t>
-  </si>
-  <si>
-    <t>LOT-QA_VER_09-5</t>
-  </si>
-  <si>
-    <t>QA_DEV_10</t>
-  </si>
-  <si>
-    <t>Deviation Log</t>
-  </si>
-  <si>
-    <t>Deviation</t>
-  </si>
-  <si>
-    <t>LOT-QA_DEV_10-1</t>
-  </si>
-  <si>
-    <t>LOT-QA_DEV_10-2</t>
-  </si>
-  <si>
-    <t>LOT-QA_DEV_10-3</t>
-  </si>
-  <si>
-    <t>LOT-QA_DEV_10-4</t>
-  </si>
-  <si>
-    <t>LOT-QA_DEV_10-5</t>
-  </si>
-  <si>
-    <t>REP_SUM_01</t>
-  </si>
-  <si>
-    <t>Weekly Summary</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Reporting Owner</t>
-  </si>
-  <si>
-    <t>LOT-REP_SUM_01-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_SUM_01-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_SUM_01-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_SUM_01-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_SUM_01-5</t>
-  </si>
-  <si>
-    <t>REP_QBR_02</t>
-  </si>
-  <si>
-    <t>Quarterly Deck</t>
-  </si>
-  <si>
-    <t>LOT-REP_QBR_02-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_QBR_02-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_QBR_02-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_QBR_02-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_QBR_02-5</t>
-  </si>
-  <si>
-    <t>REP_MFG_03</t>
-  </si>
-  <si>
-    <t>Manufacturing KPI Dashboard</t>
-  </si>
-  <si>
-    <t>Metrics</t>
-  </si>
-  <si>
-    <t>LOT-REP_MFG_03-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_MFG_03-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_MFG_03-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_MFG_03-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_MFG_03-5</t>
-  </si>
-  <si>
-    <t>REP_QC_04</t>
-  </si>
-  <si>
-    <t>QC Trend Report</t>
-  </si>
-  <si>
-    <t>Trends</t>
-  </si>
-  <si>
-    <t>LOT-REP_QC_04-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_QC_04-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_QC_04-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_QC_04-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_QC_04-5</t>
-  </si>
-  <si>
-    <t>REP_QA_05</t>
-  </si>
-  <si>
-    <t>QA Exception Summary</t>
-  </si>
-  <si>
-    <t>Exceptions</t>
-  </si>
-  <si>
-    <t>LOT-REP_QA_05-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_QA_05-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_QA_05-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_QA_05-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_QA_05-5</t>
-  </si>
-  <si>
-    <t>REP_CAP_06</t>
-  </si>
-  <si>
-    <t>Capacity Utilization</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAP_06-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAP_06-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAP_06-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAP_06-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAP_06-5</t>
-  </si>
-  <si>
-    <t>REP_EXP_07</t>
-  </si>
-  <si>
-    <t>Experiment Tracker</t>
-  </si>
-  <si>
-    <t>Dev Tracking</t>
-  </si>
-  <si>
-    <t>LOT-REP_EXP_07-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_EXP_07-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_EXP_07-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_EXP_07-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_EXP_07-5</t>
-  </si>
-  <si>
-    <t>REP_PROJ_08</t>
-  </si>
-  <si>
-    <t>Project Update</t>
-  </si>
-  <si>
-    <t>Ops</t>
-  </si>
-  <si>
-    <t>LOT-REP_PROJ_08-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_PROJ_08-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_PROJ_08-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_PROJ_08-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_PROJ_08-5</t>
-  </si>
-  <si>
-    <t>REP_CAL_09</t>
-  </si>
-  <si>
-    <t>Calendar Sync</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAL_09-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAL_09-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAL_09-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAL_09-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_CAL_09-5</t>
-  </si>
-  <si>
-    <t>REP_RISK_10</t>
-  </si>
-  <si>
-    <t>Risk Summary</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>LOT-REP_RISK_10-1</t>
-  </si>
-  <si>
-    <t>LOT-REP_RISK_10-2</t>
-  </si>
-  <si>
-    <t>LOT-REP_RISK_10-3</t>
-  </si>
-  <si>
-    <t>LOT-REP_RISK_10-4</t>
-  </si>
-  <si>
-    <t>LOT-REP_RISK_10-5</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,8 +1199,7 @@
     <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" customWidth="1"/>
+    <col min="5" max="6" width="17.54296875" customWidth="1"/>
     <col min="7" max="7" width="22.6328125" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
@@ -9090,19 +8735,19 @@
         <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>3</v>
@@ -9123,7 +8768,7 @@
         <v>40</v>
       </c>
       <c r="Q122">
-        <v>52.46</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="R122" t="s">
         <v>68</v>
@@ -9152,19 +8797,19 @@
         <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>3</v>
@@ -9185,7 +8830,7 @@
         <v>40</v>
       </c>
       <c r="Q123">
-        <v>58.18</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="R123" t="s">
         <v>68</v>
@@ -9214,19 +8859,19 @@
         <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>3</v>
@@ -9247,7 +8892,7 @@
         <v>40</v>
       </c>
       <c r="Q124">
-        <v>73.81</v>
+        <v>43.3</v>
       </c>
       <c r="R124" t="s">
         <v>68</v>
@@ -9276,19 +8921,19 @@
         <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>3</v>
@@ -9309,7 +8954,7 @@
         <v>40</v>
       </c>
       <c r="Q125">
-        <v>97.97</v>
+        <v>51.84</v>
       </c>
       <c r="R125" t="s">
         <v>68</v>
@@ -9338,19 +8983,19 @@
         <v>228</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K126">
         <v>3</v>
@@ -9371,7 +9016,7 @@
         <v>40</v>
       </c>
       <c r="Q126">
-        <v>146.63999999999999</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="R126" t="s">
         <v>68</v>
@@ -9380,4656 +9025,6 @@
         <v>30</v>
       </c>
       <c r="T126" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" t="s">
-        <v>268</v>
-      </c>
-      <c r="E127" t="s">
-        <v>228</v>
-      </c>
-      <c r="F127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" t="s">
-        <v>35</v>
-      </c>
-      <c r="I127" t="s">
-        <v>39</v>
-      </c>
-      <c r="J127" t="s">
-        <v>39</v>
-      </c>
-      <c r="K127">
-        <v>2</v>
-      </c>
-      <c r="L127" t="s">
-        <v>39</v>
-      </c>
-      <c r="M127" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N127" t="s">
-        <v>269</v>
-      </c>
-      <c r="O127">
-        <v>50</v>
-      </c>
-      <c r="P127" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q127">
-        <v>31.68</v>
-      </c>
-      <c r="R127" t="s">
-        <v>68</v>
-      </c>
-      <c r="S127" t="s">
-        <v>30</v>
-      </c>
-      <c r="T127" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>266</v>
-      </c>
-      <c r="B128" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" t="s">
-        <v>24</v>
-      </c>
-      <c r="D128" t="s">
-        <v>268</v>
-      </c>
-      <c r="E128" t="s">
-        <v>228</v>
-      </c>
-      <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
-      <c r="H128" t="s">
-        <v>35</v>
-      </c>
-      <c r="I128" t="s">
-        <v>39</v>
-      </c>
-      <c r="J128" t="s">
-        <v>39</v>
-      </c>
-      <c r="K128">
-        <v>2</v>
-      </c>
-      <c r="L128" t="s">
-        <v>39</v>
-      </c>
-      <c r="M128" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N128" t="s">
-        <v>270</v>
-      </c>
-      <c r="O128">
-        <v>100</v>
-      </c>
-      <c r="P128" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q128">
-        <v>36.85</v>
-      </c>
-      <c r="R128" t="s">
-        <v>68</v>
-      </c>
-      <c r="S128" t="s">
-        <v>30</v>
-      </c>
-      <c r="T128" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>266</v>
-      </c>
-      <c r="B129" t="s">
-        <v>267</v>
-      </c>
-      <c r="C129" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" t="s">
-        <v>268</v>
-      </c>
-      <c r="E129" t="s">
-        <v>228</v>
-      </c>
-      <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" t="s">
-        <v>35</v>
-      </c>
-      <c r="I129" t="s">
-        <v>39</v>
-      </c>
-      <c r="J129" t="s">
-        <v>39</v>
-      </c>
-      <c r="K129">
-        <v>2</v>
-      </c>
-      <c r="L129" t="s">
-        <v>39</v>
-      </c>
-      <c r="M129" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N129" t="s">
-        <v>271</v>
-      </c>
-      <c r="O129">
-        <v>200</v>
-      </c>
-      <c r="P129" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q129">
-        <v>47.17</v>
-      </c>
-      <c r="R129" t="s">
-        <v>68</v>
-      </c>
-      <c r="S129" t="s">
-        <v>30</v>
-      </c>
-      <c r="T129" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>266</v>
-      </c>
-      <c r="B130" t="s">
-        <v>267</v>
-      </c>
-      <c r="C130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" t="s">
-        <v>268</v>
-      </c>
-      <c r="E130" t="s">
-        <v>228</v>
-      </c>
-      <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" t="s">
-        <v>35</v>
-      </c>
-      <c r="I130" t="s">
-        <v>39</v>
-      </c>
-      <c r="J130" t="s">
-        <v>39</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
-      <c r="L130" t="s">
-        <v>39</v>
-      </c>
-      <c r="M130" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N130" t="s">
-        <v>272</v>
-      </c>
-      <c r="O130">
-        <v>400</v>
-      </c>
-      <c r="P130" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q130">
-        <v>69.56</v>
-      </c>
-      <c r="R130" t="s">
-        <v>68</v>
-      </c>
-      <c r="S130" t="s">
-        <v>30</v>
-      </c>
-      <c r="T130" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>266</v>
-      </c>
-      <c r="B131" t="s">
-        <v>267</v>
-      </c>
-      <c r="C131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D131" t="s">
-        <v>268</v>
-      </c>
-      <c r="E131" t="s">
-        <v>228</v>
-      </c>
-      <c r="F131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" t="s">
-        <v>35</v>
-      </c>
-      <c r="I131" t="s">
-        <v>39</v>
-      </c>
-      <c r="J131" t="s">
-        <v>39</v>
-      </c>
-      <c r="K131">
-        <v>2</v>
-      </c>
-      <c r="L131" t="s">
-        <v>39</v>
-      </c>
-      <c r="M131" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N131" t="s">
-        <v>273</v>
-      </c>
-      <c r="O131">
-        <v>800</v>
-      </c>
-      <c r="P131" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q131">
-        <v>114.02</v>
-      </c>
-      <c r="R131" t="s">
-        <v>68</v>
-      </c>
-      <c r="S131" t="s">
-        <v>30</v>
-      </c>
-      <c r="T131" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>274</v>
-      </c>
-      <c r="B132" t="s">
-        <v>275</v>
-      </c>
-      <c r="C132" t="s">
-        <v>24</v>
-      </c>
-      <c r="D132" t="s">
-        <v>276</v>
-      </c>
-      <c r="E132" t="s">
-        <v>228</v>
-      </c>
-      <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" t="s">
-        <v>35</v>
-      </c>
-      <c r="I132" t="s">
-        <v>38</v>
-      </c>
-      <c r="J132" t="s">
-        <v>38</v>
-      </c>
-      <c r="K132">
-        <v>2</v>
-      </c>
-      <c r="L132" t="s">
-        <v>38</v>
-      </c>
-      <c r="M132" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N132" t="s">
-        <v>277</v>
-      </c>
-      <c r="O132">
-        <v>50</v>
-      </c>
-      <c r="P132" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q132">
-        <v>16.09</v>
-      </c>
-      <c r="R132" t="s">
-        <v>68</v>
-      </c>
-      <c r="S132" t="s">
-        <v>30</v>
-      </c>
-      <c r="T132" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>274</v>
-      </c>
-      <c r="B133" t="s">
-        <v>275</v>
-      </c>
-      <c r="C133" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" t="s">
-        <v>276</v>
-      </c>
-      <c r="E133" t="s">
-        <v>228</v>
-      </c>
-      <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I133" t="s">
-        <v>38</v>
-      </c>
-      <c r="J133" t="s">
-        <v>38</v>
-      </c>
-      <c r="K133">
-        <v>2</v>
-      </c>
-      <c r="L133" t="s">
-        <v>38</v>
-      </c>
-      <c r="M133" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N133" t="s">
-        <v>278</v>
-      </c>
-      <c r="O133">
-        <v>100</v>
-      </c>
-      <c r="P133" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q133">
-        <v>23.88</v>
-      </c>
-      <c r="R133" t="s">
-        <v>68</v>
-      </c>
-      <c r="S133" t="s">
-        <v>30</v>
-      </c>
-      <c r="T133" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" t="s">
-        <v>275</v>
-      </c>
-      <c r="C134" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" t="s">
-        <v>276</v>
-      </c>
-      <c r="E134" t="s">
-        <v>228</v>
-      </c>
-      <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I134" t="s">
-        <v>38</v>
-      </c>
-      <c r="J134" t="s">
-        <v>38</v>
-      </c>
-      <c r="K134">
-        <v>2</v>
-      </c>
-      <c r="L134" t="s">
-        <v>38</v>
-      </c>
-      <c r="M134" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N134" t="s">
-        <v>279</v>
-      </c>
-      <c r="O134">
-        <v>200</v>
-      </c>
-      <c r="P134" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q134">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="R134" t="s">
-        <v>68</v>
-      </c>
-      <c r="S134" t="s">
-        <v>30</v>
-      </c>
-      <c r="T134" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>274</v>
-      </c>
-      <c r="B135" t="s">
-        <v>275</v>
-      </c>
-      <c r="C135" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" t="s">
-        <v>276</v>
-      </c>
-      <c r="E135" t="s">
-        <v>228</v>
-      </c>
-      <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
-      <c r="H135" t="s">
-        <v>35</v>
-      </c>
-      <c r="I135" t="s">
-        <v>38</v>
-      </c>
-      <c r="J135" t="s">
-        <v>38</v>
-      </c>
-      <c r="K135">
-        <v>2</v>
-      </c>
-      <c r="L135" t="s">
-        <v>38</v>
-      </c>
-      <c r="M135" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N135" t="s">
-        <v>280</v>
-      </c>
-      <c r="O135">
-        <v>400</v>
-      </c>
-      <c r="P135" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q135">
-        <v>58.46</v>
-      </c>
-      <c r="R135" t="s">
-        <v>68</v>
-      </c>
-      <c r="S135" t="s">
-        <v>30</v>
-      </c>
-      <c r="T135" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>274</v>
-      </c>
-      <c r="B136" t="s">
-        <v>275</v>
-      </c>
-      <c r="C136" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" t="s">
-        <v>276</v>
-      </c>
-      <c r="E136" t="s">
-        <v>228</v>
-      </c>
-      <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
-      <c r="H136" t="s">
-        <v>35</v>
-      </c>
-      <c r="I136" t="s">
-        <v>38</v>
-      </c>
-      <c r="J136" t="s">
-        <v>38</v>
-      </c>
-      <c r="K136">
-        <v>2</v>
-      </c>
-      <c r="L136" t="s">
-        <v>38</v>
-      </c>
-      <c r="M136" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N136" t="s">
-        <v>281</v>
-      </c>
-      <c r="O136">
-        <v>800</v>
-      </c>
-      <c r="P136" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q136">
-        <v>101.9</v>
-      </c>
-      <c r="R136" t="s">
-        <v>68</v>
-      </c>
-      <c r="S136" t="s">
-        <v>30</v>
-      </c>
-      <c r="T136" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>282</v>
-      </c>
-      <c r="B137" t="s">
-        <v>283</v>
-      </c>
-      <c r="C137" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" t="s">
-        <v>284</v>
-      </c>
-      <c r="E137" t="s">
-        <v>228</v>
-      </c>
-      <c r="F137" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" t="s">
-        <v>31</v>
-      </c>
-      <c r="H137" t="s">
-        <v>35</v>
-      </c>
-      <c r="I137" t="s">
-        <v>39</v>
-      </c>
-      <c r="J137" t="s">
-        <v>39</v>
-      </c>
-      <c r="K137">
-        <v>3</v>
-      </c>
-      <c r="L137" t="s">
-        <v>39</v>
-      </c>
-      <c r="M137" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N137" t="s">
-        <v>285</v>
-      </c>
-      <c r="O137">
-        <v>50</v>
-      </c>
-      <c r="P137" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q137">
-        <v>33.840000000000003</v>
-      </c>
-      <c r="R137" t="s">
-        <v>68</v>
-      </c>
-      <c r="S137" t="s">
-        <v>30</v>
-      </c>
-      <c r="T137" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>282</v>
-      </c>
-      <c r="B138" t="s">
-        <v>283</v>
-      </c>
-      <c r="C138" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" t="s">
-        <v>284</v>
-      </c>
-      <c r="E138" t="s">
-        <v>228</v>
-      </c>
-      <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
-      <c r="H138" t="s">
-        <v>35</v>
-      </c>
-      <c r="I138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J138" t="s">
-        <v>39</v>
-      </c>
-      <c r="K138">
-        <v>3</v>
-      </c>
-      <c r="L138" t="s">
-        <v>39</v>
-      </c>
-      <c r="M138" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N138" t="s">
-        <v>286</v>
-      </c>
-      <c r="O138">
-        <v>100</v>
-      </c>
-      <c r="P138" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q138">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="R138" t="s">
-        <v>68</v>
-      </c>
-      <c r="S138" t="s">
-        <v>30</v>
-      </c>
-      <c r="T138" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139" t="s">
-        <v>283</v>
-      </c>
-      <c r="C139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" t="s">
-        <v>284</v>
-      </c>
-      <c r="E139" t="s">
-        <v>228</v>
-      </c>
-      <c r="F139" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
-      </c>
-      <c r="H139" t="s">
-        <v>35</v>
-      </c>
-      <c r="I139" t="s">
-        <v>39</v>
-      </c>
-      <c r="J139" t="s">
-        <v>39</v>
-      </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
-      <c r="L139" t="s">
-        <v>39</v>
-      </c>
-      <c r="M139" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N139" t="s">
-        <v>287</v>
-      </c>
-      <c r="O139">
-        <v>200</v>
-      </c>
-      <c r="P139" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q139">
-        <v>43.3</v>
-      </c>
-      <c r="R139" t="s">
-        <v>68</v>
-      </c>
-      <c r="S139" t="s">
-        <v>30</v>
-      </c>
-      <c r="T139" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" t="s">
-        <v>283</v>
-      </c>
-      <c r="C140" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" t="s">
-        <v>284</v>
-      </c>
-      <c r="E140" t="s">
-        <v>228</v>
-      </c>
-      <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
-      <c r="H140" t="s">
-        <v>35</v>
-      </c>
-      <c r="I140" t="s">
-        <v>39</v>
-      </c>
-      <c r="J140" t="s">
-        <v>39</v>
-      </c>
-      <c r="K140">
-        <v>3</v>
-      </c>
-      <c r="L140" t="s">
-        <v>39</v>
-      </c>
-      <c r="M140" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N140" t="s">
-        <v>288</v>
-      </c>
-      <c r="O140">
-        <v>400</v>
-      </c>
-      <c r="P140" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q140">
-        <v>51.84</v>
-      </c>
-      <c r="R140" t="s">
-        <v>68</v>
-      </c>
-      <c r="S140" t="s">
-        <v>30</v>
-      </c>
-      <c r="T140" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141" t="s">
-        <v>228</v>
-      </c>
-      <c r="F141" t="s">
-        <v>28</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
-      </c>
-      <c r="H141" t="s">
-        <v>35</v>
-      </c>
-      <c r="I141" t="s">
-        <v>39</v>
-      </c>
-      <c r="J141" t="s">
-        <v>39</v>
-      </c>
-      <c r="K141">
-        <v>3</v>
-      </c>
-      <c r="L141" t="s">
-        <v>39</v>
-      </c>
-      <c r="M141" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N141" t="s">
-        <v>289</v>
-      </c>
-      <c r="O141">
-        <v>800</v>
-      </c>
-      <c r="P141" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q141">
-        <v>71.790000000000006</v>
-      </c>
-      <c r="R141" t="s">
-        <v>68</v>
-      </c>
-      <c r="S141" t="s">
-        <v>30</v>
-      </c>
-      <c r="T141" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>290</v>
-      </c>
-      <c r="B142" t="s">
-        <v>291</v>
-      </c>
-      <c r="C142" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" t="s">
-        <v>292</v>
-      </c>
-      <c r="E142" t="s">
-        <v>228</v>
-      </c>
-      <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" t="s">
-        <v>35</v>
-      </c>
-      <c r="I142" t="s">
-        <v>39</v>
-      </c>
-      <c r="J142" t="s">
-        <v>39</v>
-      </c>
-      <c r="K142">
-        <v>2</v>
-      </c>
-      <c r="L142" t="s">
-        <v>38</v>
-      </c>
-      <c r="M142" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N142" t="s">
-        <v>293</v>
-      </c>
-      <c r="O142">
-        <v>50</v>
-      </c>
-      <c r="P142" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q142">
-        <v>52.77</v>
-      </c>
-      <c r="R142" t="s">
-        <v>68</v>
-      </c>
-      <c r="S142" t="s">
-        <v>30</v>
-      </c>
-      <c r="T142" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>290</v>
-      </c>
-      <c r="B143" t="s">
-        <v>291</v>
-      </c>
-      <c r="C143" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" t="s">
-        <v>292</v>
-      </c>
-      <c r="E143" t="s">
-        <v>228</v>
-      </c>
-      <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>31</v>
-      </c>
-      <c r="H143" t="s">
-        <v>35</v>
-      </c>
-      <c r="I143" t="s">
-        <v>39</v>
-      </c>
-      <c r="J143" t="s">
-        <v>39</v>
-      </c>
-      <c r="K143">
-        <v>2</v>
-      </c>
-      <c r="L143" t="s">
-        <v>38</v>
-      </c>
-      <c r="M143" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N143" t="s">
-        <v>294</v>
-      </c>
-      <c r="O143">
-        <v>100</v>
-      </c>
-      <c r="P143" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q143">
-        <v>58.72</v>
-      </c>
-      <c r="R143" t="s">
-        <v>68</v>
-      </c>
-      <c r="S143" t="s">
-        <v>30</v>
-      </c>
-      <c r="T143" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>290</v>
-      </c>
-      <c r="B144" t="s">
-        <v>291</v>
-      </c>
-      <c r="C144" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" t="s">
-        <v>292</v>
-      </c>
-      <c r="E144" t="s">
-        <v>228</v>
-      </c>
-      <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
-      <c r="H144" t="s">
-        <v>35</v>
-      </c>
-      <c r="I144" t="s">
-        <v>39</v>
-      </c>
-      <c r="J144" t="s">
-        <v>39</v>
-      </c>
-      <c r="K144">
-        <v>2</v>
-      </c>
-      <c r="L144" t="s">
-        <v>38</v>
-      </c>
-      <c r="M144" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N144" t="s">
-        <v>295</v>
-      </c>
-      <c r="O144">
-        <v>200</v>
-      </c>
-      <c r="P144" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q144">
-        <v>71.58</v>
-      </c>
-      <c r="R144" t="s">
-        <v>68</v>
-      </c>
-      <c r="S144" t="s">
-        <v>30</v>
-      </c>
-      <c r="T144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>290</v>
-      </c>
-      <c r="B145" t="s">
-        <v>291</v>
-      </c>
-      <c r="C145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" t="s">
-        <v>292</v>
-      </c>
-      <c r="E145" t="s">
-        <v>228</v>
-      </c>
-      <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>31</v>
-      </c>
-      <c r="H145" t="s">
-        <v>35</v>
-      </c>
-      <c r="I145" t="s">
-        <v>39</v>
-      </c>
-      <c r="J145" t="s">
-        <v>39</v>
-      </c>
-      <c r="K145">
-        <v>2</v>
-      </c>
-      <c r="L145" t="s">
-        <v>38</v>
-      </c>
-      <c r="M145" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N145" t="s">
-        <v>296</v>
-      </c>
-      <c r="O145">
-        <v>400</v>
-      </c>
-      <c r="P145" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q145">
-        <v>88.86</v>
-      </c>
-      <c r="R145" t="s">
-        <v>68</v>
-      </c>
-      <c r="S145" t="s">
-        <v>30</v>
-      </c>
-      <c r="T145" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>290</v>
-      </c>
-      <c r="B146" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" t="s">
-        <v>292</v>
-      </c>
-      <c r="E146" t="s">
-        <v>228</v>
-      </c>
-      <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
-      <c r="H146" t="s">
-        <v>35</v>
-      </c>
-      <c r="I146" t="s">
-        <v>39</v>
-      </c>
-      <c r="J146" t="s">
-        <v>39</v>
-      </c>
-      <c r="K146">
-        <v>2</v>
-      </c>
-      <c r="L146" t="s">
-        <v>38</v>
-      </c>
-      <c r="M146" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N146" t="s">
-        <v>297</v>
-      </c>
-      <c r="O146">
-        <v>800</v>
-      </c>
-      <c r="P146" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q146">
-        <v>130.53</v>
-      </c>
-      <c r="R146" t="s">
-        <v>68</v>
-      </c>
-      <c r="S146" t="s">
-        <v>30</v>
-      </c>
-      <c r="T146" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>298</v>
-      </c>
-      <c r="B147" t="s">
-        <v>299</v>
-      </c>
-      <c r="C147" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" t="s">
-        <v>300</v>
-      </c>
-      <c r="E147" t="s">
-        <v>228</v>
-      </c>
-      <c r="F147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
-      <c r="H147" t="s">
-        <v>35</v>
-      </c>
-      <c r="I147" t="s">
-        <v>38</v>
-      </c>
-      <c r="J147" t="s">
-        <v>38</v>
-      </c>
-      <c r="K147">
-        <v>5</v>
-      </c>
-      <c r="L147" t="s">
-        <v>37</v>
-      </c>
-      <c r="M147" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N147" t="s">
-        <v>301</v>
-      </c>
-      <c r="O147">
-        <v>50</v>
-      </c>
-      <c r="P147" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q147">
-        <v>33.86</v>
-      </c>
-      <c r="R147" t="s">
-        <v>68</v>
-      </c>
-      <c r="S147" t="s">
-        <v>30</v>
-      </c>
-      <c r="T147" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>298</v>
-      </c>
-      <c r="B148" t="s">
-        <v>299</v>
-      </c>
-      <c r="C148" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" t="s">
-        <v>300</v>
-      </c>
-      <c r="E148" t="s">
-        <v>228</v>
-      </c>
-      <c r="F148" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>34</v>
-      </c>
-      <c r="H148" t="s">
-        <v>35</v>
-      </c>
-      <c r="I148" t="s">
-        <v>38</v>
-      </c>
-      <c r="J148" t="s">
-        <v>38</v>
-      </c>
-      <c r="K148">
-        <v>5</v>
-      </c>
-      <c r="L148" t="s">
-        <v>37</v>
-      </c>
-      <c r="M148" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N148" t="s">
-        <v>302</v>
-      </c>
-      <c r="O148">
-        <v>100</v>
-      </c>
-      <c r="P148" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q148">
-        <v>41.22</v>
-      </c>
-      <c r="R148" t="s">
-        <v>68</v>
-      </c>
-      <c r="S148" t="s">
-        <v>30</v>
-      </c>
-      <c r="T148" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>298</v>
-      </c>
-      <c r="B149" t="s">
-        <v>299</v>
-      </c>
-      <c r="C149" t="s">
-        <v>24</v>
-      </c>
-      <c r="D149" t="s">
-        <v>300</v>
-      </c>
-      <c r="E149" t="s">
-        <v>228</v>
-      </c>
-      <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H149" t="s">
-        <v>35</v>
-      </c>
-      <c r="I149" t="s">
-        <v>38</v>
-      </c>
-      <c r="J149" t="s">
-        <v>38</v>
-      </c>
-      <c r="K149">
-        <v>5</v>
-      </c>
-      <c r="L149" t="s">
-        <v>37</v>
-      </c>
-      <c r="M149" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N149" t="s">
-        <v>303</v>
-      </c>
-      <c r="O149">
-        <v>200</v>
-      </c>
-      <c r="P149" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q149">
-        <v>53.03</v>
-      </c>
-      <c r="R149" t="s">
-        <v>68</v>
-      </c>
-      <c r="S149" t="s">
-        <v>30</v>
-      </c>
-      <c r="T149" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>298</v>
-      </c>
-      <c r="B150" t="s">
-        <v>299</v>
-      </c>
-      <c r="C150" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" t="s">
-        <v>300</v>
-      </c>
-      <c r="E150" t="s">
-        <v>228</v>
-      </c>
-      <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
-      <c r="H150" t="s">
-        <v>35</v>
-      </c>
-      <c r="I150" t="s">
-        <v>38</v>
-      </c>
-      <c r="J150" t="s">
-        <v>38</v>
-      </c>
-      <c r="K150">
-        <v>5</v>
-      </c>
-      <c r="L150" t="s">
-        <v>37</v>
-      </c>
-      <c r="M150" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N150" t="s">
-        <v>304</v>
-      </c>
-      <c r="O150">
-        <v>400</v>
-      </c>
-      <c r="P150" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q150">
-        <v>85.68</v>
-      </c>
-      <c r="R150" t="s">
-        <v>68</v>
-      </c>
-      <c r="S150" t="s">
-        <v>30</v>
-      </c>
-      <c r="T150" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" t="s">
-        <v>299</v>
-      </c>
-      <c r="C151" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" t="s">
-        <v>300</v>
-      </c>
-      <c r="E151" t="s">
-        <v>228</v>
-      </c>
-      <c r="F151" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" t="s">
-        <v>34</v>
-      </c>
-      <c r="H151" t="s">
-        <v>35</v>
-      </c>
-      <c r="I151" t="s">
-        <v>38</v>
-      </c>
-      <c r="J151" t="s">
-        <v>38</v>
-      </c>
-      <c r="K151">
-        <v>5</v>
-      </c>
-      <c r="L151" t="s">
-        <v>37</v>
-      </c>
-      <c r="M151" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N151" t="s">
-        <v>305</v>
-      </c>
-      <c r="O151">
-        <v>800</v>
-      </c>
-      <c r="P151" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q151">
-        <v>140.13999999999999</v>
-      </c>
-      <c r="R151" t="s">
-        <v>68</v>
-      </c>
-      <c r="S151" t="s">
-        <v>30</v>
-      </c>
-      <c r="T151" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>306</v>
-      </c>
-      <c r="B152" t="s">
-        <v>307</v>
-      </c>
-      <c r="C152" t="s">
-        <v>236</v>
-      </c>
-      <c r="D152" t="s">
-        <v>308</v>
-      </c>
-      <c r="E152" t="s">
-        <v>309</v>
-      </c>
-      <c r="F152" t="s">
-        <v>29</v>
-      </c>
-      <c r="G152" t="s">
-        <v>34</v>
-      </c>
-      <c r="H152" t="s">
-        <v>85</v>
-      </c>
-      <c r="I152" t="s">
-        <v>37</v>
-      </c>
-      <c r="J152" t="s">
-        <v>37</v>
-      </c>
-      <c r="K152">
-        <v>2</v>
-      </c>
-      <c r="L152" t="s">
-        <v>39</v>
-      </c>
-      <c r="M152" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N152" t="s">
-        <v>310</v>
-      </c>
-      <c r="O152">
-        <v>50</v>
-      </c>
-      <c r="P152" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q152">
-        <v>46.39</v>
-      </c>
-      <c r="R152" t="s">
-        <v>68</v>
-      </c>
-      <c r="S152" t="s">
-        <v>30</v>
-      </c>
-      <c r="T152" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>306</v>
-      </c>
-      <c r="B153" t="s">
-        <v>307</v>
-      </c>
-      <c r="C153" t="s">
-        <v>236</v>
-      </c>
-      <c r="D153" t="s">
-        <v>308</v>
-      </c>
-      <c r="E153" t="s">
-        <v>309</v>
-      </c>
-      <c r="F153" t="s">
-        <v>29</v>
-      </c>
-      <c r="G153" t="s">
-        <v>34</v>
-      </c>
-      <c r="H153" t="s">
-        <v>85</v>
-      </c>
-      <c r="I153" t="s">
-        <v>37</v>
-      </c>
-      <c r="J153" t="s">
-        <v>37</v>
-      </c>
-      <c r="K153">
-        <v>2</v>
-      </c>
-      <c r="L153" t="s">
-        <v>39</v>
-      </c>
-      <c r="M153" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N153" t="s">
-        <v>311</v>
-      </c>
-      <c r="O153">
-        <v>100</v>
-      </c>
-      <c r="P153" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q153">
-        <v>46.61</v>
-      </c>
-      <c r="R153" t="s">
-        <v>68</v>
-      </c>
-      <c r="S153" t="s">
-        <v>30</v>
-      </c>
-      <c r="T153" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>306</v>
-      </c>
-      <c r="B154" t="s">
-        <v>307</v>
-      </c>
-      <c r="C154" t="s">
-        <v>236</v>
-      </c>
-      <c r="D154" t="s">
-        <v>308</v>
-      </c>
-      <c r="E154" t="s">
-        <v>309</v>
-      </c>
-      <c r="F154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G154" t="s">
-        <v>34</v>
-      </c>
-      <c r="H154" t="s">
-        <v>85</v>
-      </c>
-      <c r="I154" t="s">
-        <v>37</v>
-      </c>
-      <c r="J154" t="s">
-        <v>37</v>
-      </c>
-      <c r="K154">
-        <v>2</v>
-      </c>
-      <c r="L154" t="s">
-        <v>39</v>
-      </c>
-      <c r="M154" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N154" t="s">
-        <v>312</v>
-      </c>
-      <c r="O154">
-        <v>200</v>
-      </c>
-      <c r="P154" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q154">
-        <v>49.87</v>
-      </c>
-      <c r="R154" t="s">
-        <v>68</v>
-      </c>
-      <c r="S154" t="s">
-        <v>30</v>
-      </c>
-      <c r="T154" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" t="s">
-        <v>236</v>
-      </c>
-      <c r="D155" t="s">
-        <v>308</v>
-      </c>
-      <c r="E155" t="s">
-        <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>29</v>
-      </c>
-      <c r="G155" t="s">
-        <v>34</v>
-      </c>
-      <c r="H155" t="s">
-        <v>85</v>
-      </c>
-      <c r="I155" t="s">
-        <v>37</v>
-      </c>
-      <c r="J155" t="s">
-        <v>37</v>
-      </c>
-      <c r="K155">
-        <v>2</v>
-      </c>
-      <c r="L155" t="s">
-        <v>39</v>
-      </c>
-      <c r="M155" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N155" t="s">
-        <v>313</v>
-      </c>
-      <c r="O155">
-        <v>400</v>
-      </c>
-      <c r="P155" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q155">
-        <v>53.08</v>
-      </c>
-      <c r="R155" t="s">
-        <v>68</v>
-      </c>
-      <c r="S155" t="s">
-        <v>30</v>
-      </c>
-      <c r="T155" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>306</v>
-      </c>
-      <c r="B156" t="s">
-        <v>307</v>
-      </c>
-      <c r="C156" t="s">
-        <v>236</v>
-      </c>
-      <c r="D156" t="s">
-        <v>308</v>
-      </c>
-      <c r="E156" t="s">
-        <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" t="s">
-        <v>34</v>
-      </c>
-      <c r="H156" t="s">
-        <v>85</v>
-      </c>
-      <c r="I156" t="s">
-        <v>37</v>
-      </c>
-      <c r="J156" t="s">
-        <v>37</v>
-      </c>
-      <c r="K156">
-        <v>2</v>
-      </c>
-      <c r="L156" t="s">
-        <v>39</v>
-      </c>
-      <c r="M156" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N156" t="s">
-        <v>314</v>
-      </c>
-      <c r="O156">
-        <v>800</v>
-      </c>
-      <c r="P156" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q156">
-        <v>62.25</v>
-      </c>
-      <c r="R156" t="s">
-        <v>68</v>
-      </c>
-      <c r="S156" t="s">
-        <v>30</v>
-      </c>
-      <c r="T156" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>315</v>
-      </c>
-      <c r="B157" t="s">
-        <v>316</v>
-      </c>
-      <c r="C157" t="s">
-        <v>236</v>
-      </c>
-      <c r="D157" t="s">
-        <v>236</v>
-      </c>
-      <c r="E157" t="s">
-        <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>28</v>
-      </c>
-      <c r="G157" t="s">
-        <v>32</v>
-      </c>
-      <c r="H157" t="s">
-        <v>35</v>
-      </c>
-      <c r="I157" t="s">
-        <v>39</v>
-      </c>
-      <c r="J157" t="s">
-        <v>39</v>
-      </c>
-      <c r="K157">
-        <v>3</v>
-      </c>
-      <c r="L157" t="s">
-        <v>39</v>
-      </c>
-      <c r="M157" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N157" t="s">
-        <v>317</v>
-      </c>
-      <c r="O157">
-        <v>50</v>
-      </c>
-      <c r="P157" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q157">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="R157" t="s">
-        <v>68</v>
-      </c>
-      <c r="S157" t="s">
-        <v>30</v>
-      </c>
-      <c r="T157" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>315</v>
-      </c>
-      <c r="B158" t="s">
-        <v>316</v>
-      </c>
-      <c r="C158" t="s">
-        <v>236</v>
-      </c>
-      <c r="D158" t="s">
-        <v>236</v>
-      </c>
-      <c r="E158" t="s">
-        <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>32</v>
-      </c>
-      <c r="H158" t="s">
-        <v>35</v>
-      </c>
-      <c r="I158" t="s">
-        <v>39</v>
-      </c>
-      <c r="J158" t="s">
-        <v>39</v>
-      </c>
-      <c r="K158">
-        <v>3</v>
-      </c>
-      <c r="L158" t="s">
-        <v>39</v>
-      </c>
-      <c r="M158" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N158" t="s">
-        <v>318</v>
-      </c>
-      <c r="O158">
-        <v>100</v>
-      </c>
-      <c r="P158" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q158">
-        <v>41.49</v>
-      </c>
-      <c r="R158" t="s">
-        <v>68</v>
-      </c>
-      <c r="S158" t="s">
-        <v>30</v>
-      </c>
-      <c r="T158" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" t="s">
-        <v>316</v>
-      </c>
-      <c r="C159" t="s">
-        <v>236</v>
-      </c>
-      <c r="D159" t="s">
-        <v>236</v>
-      </c>
-      <c r="E159" t="s">
-        <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>28</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" t="s">
-        <v>35</v>
-      </c>
-      <c r="I159" t="s">
-        <v>39</v>
-      </c>
-      <c r="J159" t="s">
-        <v>39</v>
-      </c>
-      <c r="K159">
-        <v>3</v>
-      </c>
-      <c r="L159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M159" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N159" t="s">
-        <v>319</v>
-      </c>
-      <c r="O159">
-        <v>200</v>
-      </c>
-      <c r="P159" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q159">
-        <v>44.52</v>
-      </c>
-      <c r="R159" t="s">
-        <v>68</v>
-      </c>
-      <c r="S159" t="s">
-        <v>30</v>
-      </c>
-      <c r="T159" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>315</v>
-      </c>
-      <c r="B160" t="s">
-        <v>316</v>
-      </c>
-      <c r="C160" t="s">
-        <v>236</v>
-      </c>
-      <c r="D160" t="s">
-        <v>236</v>
-      </c>
-      <c r="E160" t="s">
-        <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
-        <v>32</v>
-      </c>
-      <c r="H160" t="s">
-        <v>35</v>
-      </c>
-      <c r="I160" t="s">
-        <v>39</v>
-      </c>
-      <c r="J160" t="s">
-        <v>39</v>
-      </c>
-      <c r="K160">
-        <v>3</v>
-      </c>
-      <c r="L160" t="s">
-        <v>39</v>
-      </c>
-      <c r="M160" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N160" t="s">
-        <v>320</v>
-      </c>
-      <c r="O160">
-        <v>400</v>
-      </c>
-      <c r="P160" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q160">
-        <v>48.5</v>
-      </c>
-      <c r="R160" t="s">
-        <v>68</v>
-      </c>
-      <c r="S160" t="s">
-        <v>30</v>
-      </c>
-      <c r="T160" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>315</v>
-      </c>
-      <c r="B161" t="s">
-        <v>316</v>
-      </c>
-      <c r="C161" t="s">
-        <v>236</v>
-      </c>
-      <c r="D161" t="s">
-        <v>236</v>
-      </c>
-      <c r="E161" t="s">
-        <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>28</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
-      <c r="H161" t="s">
-        <v>35</v>
-      </c>
-      <c r="I161" t="s">
-        <v>39</v>
-      </c>
-      <c r="J161" t="s">
-        <v>39</v>
-      </c>
-      <c r="K161">
-        <v>3</v>
-      </c>
-      <c r="L161" t="s">
-        <v>39</v>
-      </c>
-      <c r="M161" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N161" t="s">
-        <v>321</v>
-      </c>
-      <c r="O161">
-        <v>800</v>
-      </c>
-      <c r="P161" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q161">
-        <v>58.86</v>
-      </c>
-      <c r="R161" t="s">
-        <v>68</v>
-      </c>
-      <c r="S161" t="s">
-        <v>30</v>
-      </c>
-      <c r="T161" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>322</v>
-      </c>
-      <c r="B162" t="s">
-        <v>323</v>
-      </c>
-      <c r="C162" t="s">
-        <v>236</v>
-      </c>
-      <c r="D162" t="s">
-        <v>324</v>
-      </c>
-      <c r="E162" t="s">
-        <v>309</v>
-      </c>
-      <c r="F162" t="s">
-        <v>29</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
-      <c r="H162" t="s">
-        <v>36</v>
-      </c>
-      <c r="I162" t="s">
-        <v>38</v>
-      </c>
-      <c r="J162" t="s">
-        <v>38</v>
-      </c>
-      <c r="K162">
-        <v>2</v>
-      </c>
-      <c r="L162" t="s">
-        <v>37</v>
-      </c>
-      <c r="M162" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N162" t="s">
-        <v>325</v>
-      </c>
-      <c r="O162">
-        <v>50</v>
-      </c>
-      <c r="P162" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q162">
-        <v>30.84</v>
-      </c>
-      <c r="R162" t="s">
-        <v>68</v>
-      </c>
-      <c r="S162" t="s">
-        <v>30</v>
-      </c>
-      <c r="T162" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>322</v>
-      </c>
-      <c r="B163" t="s">
-        <v>323</v>
-      </c>
-      <c r="C163" t="s">
-        <v>236</v>
-      </c>
-      <c r="D163" t="s">
-        <v>324</v>
-      </c>
-      <c r="E163" t="s">
-        <v>309</v>
-      </c>
-      <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163" t="s">
-        <v>31</v>
-      </c>
-      <c r="H163" t="s">
-        <v>36</v>
-      </c>
-      <c r="I163" t="s">
-        <v>38</v>
-      </c>
-      <c r="J163" t="s">
-        <v>38</v>
-      </c>
-      <c r="K163">
-        <v>2</v>
-      </c>
-      <c r="L163" t="s">
-        <v>37</v>
-      </c>
-      <c r="M163" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N163" t="s">
-        <v>326</v>
-      </c>
-      <c r="O163">
-        <v>100</v>
-      </c>
-      <c r="P163" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q163">
-        <v>33.29</v>
-      </c>
-      <c r="R163" t="s">
-        <v>68</v>
-      </c>
-      <c r="S163" t="s">
-        <v>30</v>
-      </c>
-      <c r="T163" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>322</v>
-      </c>
-      <c r="B164" t="s">
-        <v>323</v>
-      </c>
-      <c r="C164" t="s">
-        <v>236</v>
-      </c>
-      <c r="D164" t="s">
-        <v>324</v>
-      </c>
-      <c r="E164" t="s">
-        <v>309</v>
-      </c>
-      <c r="F164" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" t="s">
-        <v>36</v>
-      </c>
-      <c r="I164" t="s">
-        <v>38</v>
-      </c>
-      <c r="J164" t="s">
-        <v>38</v>
-      </c>
-      <c r="K164">
-        <v>2</v>
-      </c>
-      <c r="L164" t="s">
-        <v>37</v>
-      </c>
-      <c r="M164" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N164" t="s">
-        <v>327</v>
-      </c>
-      <c r="O164">
-        <v>200</v>
-      </c>
-      <c r="P164" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q164">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="R164" t="s">
-        <v>68</v>
-      </c>
-      <c r="S164" t="s">
-        <v>30</v>
-      </c>
-      <c r="T164" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>322</v>
-      </c>
-      <c r="B165" t="s">
-        <v>323</v>
-      </c>
-      <c r="C165" t="s">
-        <v>236</v>
-      </c>
-      <c r="D165" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" t="s">
-        <v>309</v>
-      </c>
-      <c r="F165" t="s">
-        <v>29</v>
-      </c>
-      <c r="G165" t="s">
-        <v>31</v>
-      </c>
-      <c r="H165" t="s">
-        <v>36</v>
-      </c>
-      <c r="I165" t="s">
-        <v>38</v>
-      </c>
-      <c r="J165" t="s">
-        <v>38</v>
-      </c>
-      <c r="K165">
-        <v>2</v>
-      </c>
-      <c r="L165" t="s">
-        <v>37</v>
-      </c>
-      <c r="M165" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N165" t="s">
-        <v>328</v>
-      </c>
-      <c r="O165">
-        <v>400</v>
-      </c>
-      <c r="P165" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q165">
-        <v>40.08</v>
-      </c>
-      <c r="R165" t="s">
-        <v>68</v>
-      </c>
-      <c r="S165" t="s">
-        <v>30</v>
-      </c>
-      <c r="T165" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>322</v>
-      </c>
-      <c r="B166" t="s">
-        <v>323</v>
-      </c>
-      <c r="C166" t="s">
-        <v>236</v>
-      </c>
-      <c r="D166" t="s">
-        <v>324</v>
-      </c>
-      <c r="E166" t="s">
-        <v>309</v>
-      </c>
-      <c r="F166" t="s">
-        <v>29</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
-      <c r="H166" t="s">
-        <v>36</v>
-      </c>
-      <c r="I166" t="s">
-        <v>38</v>
-      </c>
-      <c r="J166" t="s">
-        <v>38</v>
-      </c>
-      <c r="K166">
-        <v>2</v>
-      </c>
-      <c r="L166" t="s">
-        <v>37</v>
-      </c>
-      <c r="M166" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N166" t="s">
-        <v>329</v>
-      </c>
-      <c r="O166">
-        <v>800</v>
-      </c>
-      <c r="P166" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q166">
-        <v>53.4</v>
-      </c>
-      <c r="R166" t="s">
-        <v>68</v>
-      </c>
-      <c r="S166" t="s">
-        <v>30</v>
-      </c>
-      <c r="T166" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" t="s">
-        <v>331</v>
-      </c>
-      <c r="C167" t="s">
-        <v>236</v>
-      </c>
-      <c r="D167" t="s">
-        <v>332</v>
-      </c>
-      <c r="E167" t="s">
-        <v>309</v>
-      </c>
-      <c r="F167" t="s">
-        <v>29</v>
-      </c>
-      <c r="G167" t="s">
-        <v>31</v>
-      </c>
-      <c r="H167" t="s">
-        <v>36</v>
-      </c>
-      <c r="I167" t="s">
-        <v>39</v>
-      </c>
-      <c r="J167" t="s">
-        <v>39</v>
-      </c>
-      <c r="K167">
-        <v>2</v>
-      </c>
-      <c r="L167" t="s">
-        <v>39</v>
-      </c>
-      <c r="M167" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N167" t="s">
-        <v>333</v>
-      </c>
-      <c r="O167">
-        <v>50</v>
-      </c>
-      <c r="P167" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q167">
-        <v>22.71</v>
-      </c>
-      <c r="R167" t="s">
-        <v>68</v>
-      </c>
-      <c r="S167" t="s">
-        <v>30</v>
-      </c>
-      <c r="T167" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" t="s">
-        <v>331</v>
-      </c>
-      <c r="C168" t="s">
-        <v>236</v>
-      </c>
-      <c r="D168" t="s">
-        <v>332</v>
-      </c>
-      <c r="E168" t="s">
-        <v>309</v>
-      </c>
-      <c r="F168" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" t="s">
-        <v>31</v>
-      </c>
-      <c r="H168" t="s">
-        <v>36</v>
-      </c>
-      <c r="I168" t="s">
-        <v>39</v>
-      </c>
-      <c r="J168" t="s">
-        <v>39</v>
-      </c>
-      <c r="K168">
-        <v>2</v>
-      </c>
-      <c r="L168" t="s">
-        <v>39</v>
-      </c>
-      <c r="M168" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N168" t="s">
-        <v>334</v>
-      </c>
-      <c r="O168">
-        <v>100</v>
-      </c>
-      <c r="P168" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q168">
-        <v>23.59</v>
-      </c>
-      <c r="R168" t="s">
-        <v>68</v>
-      </c>
-      <c r="S168" t="s">
-        <v>30</v>
-      </c>
-      <c r="T168" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>330</v>
-      </c>
-      <c r="B169" t="s">
-        <v>331</v>
-      </c>
-      <c r="C169" t="s">
-        <v>236</v>
-      </c>
-      <c r="D169" t="s">
-        <v>332</v>
-      </c>
-      <c r="E169" t="s">
-        <v>309</v>
-      </c>
-      <c r="F169" t="s">
-        <v>29</v>
-      </c>
-      <c r="G169" t="s">
-        <v>31</v>
-      </c>
-      <c r="H169" t="s">
-        <v>36</v>
-      </c>
-      <c r="I169" t="s">
-        <v>39</v>
-      </c>
-      <c r="J169" t="s">
-        <v>39</v>
-      </c>
-      <c r="K169">
-        <v>2</v>
-      </c>
-      <c r="L169" t="s">
-        <v>39</v>
-      </c>
-      <c r="M169" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N169" t="s">
-        <v>335</v>
-      </c>
-      <c r="O169">
-        <v>200</v>
-      </c>
-      <c r="P169" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q169">
-        <v>23.59</v>
-      </c>
-      <c r="R169" t="s">
-        <v>68</v>
-      </c>
-      <c r="S169" t="s">
-        <v>30</v>
-      </c>
-      <c r="T169" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>330</v>
-      </c>
-      <c r="B170" t="s">
-        <v>331</v>
-      </c>
-      <c r="C170" t="s">
-        <v>236</v>
-      </c>
-      <c r="D170" t="s">
-        <v>332</v>
-      </c>
-      <c r="E170" t="s">
-        <v>309</v>
-      </c>
-      <c r="F170" t="s">
-        <v>29</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
-      <c r="H170" t="s">
-        <v>36</v>
-      </c>
-      <c r="I170" t="s">
-        <v>39</v>
-      </c>
-      <c r="J170" t="s">
-        <v>39</v>
-      </c>
-      <c r="K170">
-        <v>2</v>
-      </c>
-      <c r="L170" t="s">
-        <v>39</v>
-      </c>
-      <c r="M170" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N170" t="s">
-        <v>336</v>
-      </c>
-      <c r="O170">
-        <v>400</v>
-      </c>
-      <c r="P170" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q170">
-        <v>26.83</v>
-      </c>
-      <c r="R170" t="s">
-        <v>68</v>
-      </c>
-      <c r="S170" t="s">
-        <v>30</v>
-      </c>
-      <c r="T170" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>330</v>
-      </c>
-      <c r="B171" t="s">
-        <v>331</v>
-      </c>
-      <c r="C171" t="s">
-        <v>236</v>
-      </c>
-      <c r="D171" t="s">
-        <v>332</v>
-      </c>
-      <c r="E171" t="s">
-        <v>309</v>
-      </c>
-      <c r="F171" t="s">
-        <v>29</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
-      </c>
-      <c r="H171" t="s">
-        <v>36</v>
-      </c>
-      <c r="I171" t="s">
-        <v>39</v>
-      </c>
-      <c r="J171" t="s">
-        <v>39</v>
-      </c>
-      <c r="K171">
-        <v>2</v>
-      </c>
-      <c r="L171" t="s">
-        <v>39</v>
-      </c>
-      <c r="M171" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N171" t="s">
-        <v>337</v>
-      </c>
-      <c r="O171">
-        <v>800</v>
-      </c>
-      <c r="P171" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q171">
-        <v>30.99</v>
-      </c>
-      <c r="R171" t="s">
-        <v>68</v>
-      </c>
-      <c r="S171" t="s">
-        <v>30</v>
-      </c>
-      <c r="T171" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>338</v>
-      </c>
-      <c r="B172" t="s">
-        <v>339</v>
-      </c>
-      <c r="C172" t="s">
-        <v>236</v>
-      </c>
-      <c r="D172" t="s">
-        <v>340</v>
-      </c>
-      <c r="E172" t="s">
-        <v>309</v>
-      </c>
-      <c r="F172" t="s">
-        <v>29</v>
-      </c>
-      <c r="G172" t="s">
-        <v>33</v>
-      </c>
-      <c r="H172" t="s">
-        <v>85</v>
-      </c>
-      <c r="I172" t="s">
-        <v>39</v>
-      </c>
-      <c r="J172" t="s">
-        <v>39</v>
-      </c>
-      <c r="K172">
-        <v>3</v>
-      </c>
-      <c r="L172" t="s">
-        <v>39</v>
-      </c>
-      <c r="M172" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N172" t="s">
-        <v>341</v>
-      </c>
-      <c r="O172">
-        <v>50</v>
-      </c>
-      <c r="P172" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q172">
-        <v>57.88</v>
-      </c>
-      <c r="R172" t="s">
-        <v>68</v>
-      </c>
-      <c r="S172" t="s">
-        <v>30</v>
-      </c>
-      <c r="T172" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>338</v>
-      </c>
-      <c r="B173" t="s">
-        <v>339</v>
-      </c>
-      <c r="C173" t="s">
-        <v>236</v>
-      </c>
-      <c r="D173" t="s">
-        <v>340</v>
-      </c>
-      <c r="E173" t="s">
-        <v>309</v>
-      </c>
-      <c r="F173" t="s">
-        <v>29</v>
-      </c>
-      <c r="G173" t="s">
-        <v>33</v>
-      </c>
-      <c r="H173" t="s">
-        <v>85</v>
-      </c>
-      <c r="I173" t="s">
-        <v>39</v>
-      </c>
-      <c r="J173" t="s">
-        <v>39</v>
-      </c>
-      <c r="K173">
-        <v>3</v>
-      </c>
-      <c r="L173" t="s">
-        <v>39</v>
-      </c>
-      <c r="M173" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N173" t="s">
-        <v>342</v>
-      </c>
-      <c r="O173">
-        <v>100</v>
-      </c>
-      <c r="P173" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q173">
-        <v>60.19</v>
-      </c>
-      <c r="R173" t="s">
-        <v>68</v>
-      </c>
-      <c r="S173" t="s">
-        <v>30</v>
-      </c>
-      <c r="T173" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>338</v>
-      </c>
-      <c r="B174" t="s">
-        <v>339</v>
-      </c>
-      <c r="C174" t="s">
-        <v>236</v>
-      </c>
-      <c r="D174" t="s">
-        <v>340</v>
-      </c>
-      <c r="E174" t="s">
-        <v>309</v>
-      </c>
-      <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" t="s">
-        <v>33</v>
-      </c>
-      <c r="H174" t="s">
-        <v>85</v>
-      </c>
-      <c r="I174" t="s">
-        <v>39</v>
-      </c>
-      <c r="J174" t="s">
-        <v>39</v>
-      </c>
-      <c r="K174">
-        <v>3</v>
-      </c>
-      <c r="L174" t="s">
-        <v>39</v>
-      </c>
-      <c r="M174" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N174" t="s">
-        <v>343</v>
-      </c>
-      <c r="O174">
-        <v>200</v>
-      </c>
-      <c r="P174" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q174">
-        <v>57.47</v>
-      </c>
-      <c r="R174" t="s">
-        <v>68</v>
-      </c>
-      <c r="S174" t="s">
-        <v>30</v>
-      </c>
-      <c r="T174" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>338</v>
-      </c>
-      <c r="B175" t="s">
-        <v>339</v>
-      </c>
-      <c r="C175" t="s">
-        <v>236</v>
-      </c>
-      <c r="D175" t="s">
-        <v>340</v>
-      </c>
-      <c r="E175" t="s">
-        <v>309</v>
-      </c>
-      <c r="F175" t="s">
-        <v>29</v>
-      </c>
-      <c r="G175" t="s">
-        <v>33</v>
-      </c>
-      <c r="H175" t="s">
-        <v>85</v>
-      </c>
-      <c r="I175" t="s">
-        <v>39</v>
-      </c>
-      <c r="J175" t="s">
-        <v>39</v>
-      </c>
-      <c r="K175">
-        <v>3</v>
-      </c>
-      <c r="L175" t="s">
-        <v>39</v>
-      </c>
-      <c r="M175" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N175" t="s">
-        <v>344</v>
-      </c>
-      <c r="O175">
-        <v>400</v>
-      </c>
-      <c r="P175" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q175">
-        <v>58.63</v>
-      </c>
-      <c r="R175" t="s">
-        <v>68</v>
-      </c>
-      <c r="S175" t="s">
-        <v>30</v>
-      </c>
-      <c r="T175" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176" t="s">
-        <v>339</v>
-      </c>
-      <c r="C176" t="s">
-        <v>236</v>
-      </c>
-      <c r="D176" t="s">
-        <v>340</v>
-      </c>
-      <c r="E176" t="s">
-        <v>309</v>
-      </c>
-      <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176" t="s">
-        <v>33</v>
-      </c>
-      <c r="H176" t="s">
-        <v>85</v>
-      </c>
-      <c r="I176" t="s">
-        <v>39</v>
-      </c>
-      <c r="J176" t="s">
-        <v>39</v>
-      </c>
-      <c r="K176">
-        <v>3</v>
-      </c>
-      <c r="L176" t="s">
-        <v>39</v>
-      </c>
-      <c r="M176" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N176" t="s">
-        <v>345</v>
-      </c>
-      <c r="O176">
-        <v>800</v>
-      </c>
-      <c r="P176" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q176">
-        <v>59.49</v>
-      </c>
-      <c r="R176" t="s">
-        <v>68</v>
-      </c>
-      <c r="S176" t="s">
-        <v>30</v>
-      </c>
-      <c r="T176" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>346</v>
-      </c>
-      <c r="B177" t="s">
-        <v>347</v>
-      </c>
-      <c r="C177" t="s">
-        <v>236</v>
-      </c>
-      <c r="D177" t="s">
-        <v>324</v>
-      </c>
-      <c r="E177" t="s">
-        <v>309</v>
-      </c>
-      <c r="F177" t="s">
-        <v>29</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
-      </c>
-      <c r="H177" t="s">
-        <v>36</v>
-      </c>
-      <c r="I177" t="s">
-        <v>39</v>
-      </c>
-      <c r="J177" t="s">
-        <v>39</v>
-      </c>
-      <c r="K177">
-        <v>3</v>
-      </c>
-      <c r="L177" t="s">
-        <v>37</v>
-      </c>
-      <c r="M177" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N177" t="s">
-        <v>348</v>
-      </c>
-      <c r="O177">
-        <v>50</v>
-      </c>
-      <c r="P177" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q177">
-        <v>30.32</v>
-      </c>
-      <c r="R177" t="s">
-        <v>68</v>
-      </c>
-      <c r="S177" t="s">
-        <v>30</v>
-      </c>
-      <c r="T177" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>346</v>
-      </c>
-      <c r="B178" t="s">
-        <v>347</v>
-      </c>
-      <c r="C178" t="s">
-        <v>236</v>
-      </c>
-      <c r="D178" t="s">
-        <v>324</v>
-      </c>
-      <c r="E178" t="s">
-        <v>309</v>
-      </c>
-      <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
-      </c>
-      <c r="H178" t="s">
-        <v>36</v>
-      </c>
-      <c r="I178" t="s">
-        <v>39</v>
-      </c>
-      <c r="J178" t="s">
-        <v>39</v>
-      </c>
-      <c r="K178">
-        <v>3</v>
-      </c>
-      <c r="L178" t="s">
-        <v>37</v>
-      </c>
-      <c r="M178" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N178" t="s">
-        <v>349</v>
-      </c>
-      <c r="O178">
-        <v>100</v>
-      </c>
-      <c r="P178" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q178">
-        <v>32.33</v>
-      </c>
-      <c r="R178" t="s">
-        <v>68</v>
-      </c>
-      <c r="S178" t="s">
-        <v>30</v>
-      </c>
-      <c r="T178" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>346</v>
-      </c>
-      <c r="B179" t="s">
-        <v>347</v>
-      </c>
-      <c r="C179" t="s">
-        <v>236</v>
-      </c>
-      <c r="D179" t="s">
-        <v>324</v>
-      </c>
-      <c r="E179" t="s">
-        <v>309</v>
-      </c>
-      <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
-      <c r="H179" t="s">
-        <v>36</v>
-      </c>
-      <c r="I179" t="s">
-        <v>39</v>
-      </c>
-      <c r="J179" t="s">
-        <v>39</v>
-      </c>
-      <c r="K179">
-        <v>3</v>
-      </c>
-      <c r="L179" t="s">
-        <v>37</v>
-      </c>
-      <c r="M179" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N179" t="s">
-        <v>350</v>
-      </c>
-      <c r="O179">
-        <v>200</v>
-      </c>
-      <c r="P179" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q179">
-        <v>33.840000000000003</v>
-      </c>
-      <c r="R179" t="s">
-        <v>68</v>
-      </c>
-      <c r="S179" t="s">
-        <v>30</v>
-      </c>
-      <c r="T179" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>346</v>
-      </c>
-      <c r="B180" t="s">
-        <v>347</v>
-      </c>
-      <c r="C180" t="s">
-        <v>236</v>
-      </c>
-      <c r="D180" t="s">
-        <v>324</v>
-      </c>
-      <c r="E180" t="s">
-        <v>309</v>
-      </c>
-      <c r="F180" t="s">
-        <v>29</v>
-      </c>
-      <c r="G180" t="s">
-        <v>31</v>
-      </c>
-      <c r="H180" t="s">
-        <v>36</v>
-      </c>
-      <c r="I180" t="s">
-        <v>39</v>
-      </c>
-      <c r="J180" t="s">
-        <v>39</v>
-      </c>
-      <c r="K180">
-        <v>3</v>
-      </c>
-      <c r="L180" t="s">
-        <v>37</v>
-      </c>
-      <c r="M180" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N180" t="s">
-        <v>351</v>
-      </c>
-      <c r="O180">
-        <v>400</v>
-      </c>
-      <c r="P180" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q180">
-        <v>40</v>
-      </c>
-      <c r="R180" t="s">
-        <v>68</v>
-      </c>
-      <c r="S180" t="s">
-        <v>30</v>
-      </c>
-      <c r="T180" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>346</v>
-      </c>
-      <c r="B181" t="s">
-        <v>347</v>
-      </c>
-      <c r="C181" t="s">
-        <v>236</v>
-      </c>
-      <c r="D181" t="s">
-        <v>324</v>
-      </c>
-      <c r="E181" t="s">
-        <v>309</v>
-      </c>
-      <c r="F181" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
-      <c r="H181" t="s">
-        <v>36</v>
-      </c>
-      <c r="I181" t="s">
-        <v>39</v>
-      </c>
-      <c r="J181" t="s">
-        <v>39</v>
-      </c>
-      <c r="K181">
-        <v>3</v>
-      </c>
-      <c r="L181" t="s">
-        <v>37</v>
-      </c>
-      <c r="M181" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N181" t="s">
-        <v>352</v>
-      </c>
-      <c r="O181">
-        <v>800</v>
-      </c>
-      <c r="P181" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q181">
-        <v>47.91</v>
-      </c>
-      <c r="R181" t="s">
-        <v>68</v>
-      </c>
-      <c r="S181" t="s">
-        <v>30</v>
-      </c>
-      <c r="T181" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>353</v>
-      </c>
-      <c r="B182" t="s">
-        <v>354</v>
-      </c>
-      <c r="C182" t="s">
-        <v>236</v>
-      </c>
-      <c r="D182" t="s">
-        <v>355</v>
-      </c>
-      <c r="E182" t="s">
-        <v>309</v>
-      </c>
-      <c r="F182" t="s">
-        <v>29</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
-      <c r="H182" t="s">
-        <v>85</v>
-      </c>
-      <c r="I182" t="s">
-        <v>38</v>
-      </c>
-      <c r="J182" t="s">
-        <v>38</v>
-      </c>
-      <c r="K182">
-        <v>2</v>
-      </c>
-      <c r="L182" t="s">
-        <v>38</v>
-      </c>
-      <c r="M182" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N182" t="s">
-        <v>356</v>
-      </c>
-      <c r="O182">
-        <v>50</v>
-      </c>
-      <c r="P182" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q182">
-        <v>52.8</v>
-      </c>
-      <c r="R182" t="s">
-        <v>68</v>
-      </c>
-      <c r="S182" t="s">
-        <v>30</v>
-      </c>
-      <c r="T182" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183" t="s">
-        <v>354</v>
-      </c>
-      <c r="C183" t="s">
-        <v>236</v>
-      </c>
-      <c r="D183" t="s">
-        <v>355</v>
-      </c>
-      <c r="E183" t="s">
-        <v>309</v>
-      </c>
-      <c r="F183" t="s">
-        <v>29</v>
-      </c>
-      <c r="G183" t="s">
-        <v>31</v>
-      </c>
-      <c r="H183" t="s">
-        <v>85</v>
-      </c>
-      <c r="I183" t="s">
-        <v>38</v>
-      </c>
-      <c r="J183" t="s">
-        <v>38</v>
-      </c>
-      <c r="K183">
-        <v>2</v>
-      </c>
-      <c r="L183" t="s">
-        <v>38</v>
-      </c>
-      <c r="M183" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N183" t="s">
-        <v>357</v>
-      </c>
-      <c r="O183">
-        <v>100</v>
-      </c>
-      <c r="P183" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q183">
-        <v>55.3</v>
-      </c>
-      <c r="R183" t="s">
-        <v>68</v>
-      </c>
-      <c r="S183" t="s">
-        <v>30</v>
-      </c>
-      <c r="T183" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>353</v>
-      </c>
-      <c r="B184" t="s">
-        <v>354</v>
-      </c>
-      <c r="C184" t="s">
-        <v>236</v>
-      </c>
-      <c r="D184" t="s">
-        <v>355</v>
-      </c>
-      <c r="E184" t="s">
-        <v>309</v>
-      </c>
-      <c r="F184" t="s">
-        <v>29</v>
-      </c>
-      <c r="G184" t="s">
-        <v>31</v>
-      </c>
-      <c r="H184" t="s">
-        <v>85</v>
-      </c>
-      <c r="I184" t="s">
-        <v>38</v>
-      </c>
-      <c r="J184" t="s">
-        <v>38</v>
-      </c>
-      <c r="K184">
-        <v>2</v>
-      </c>
-      <c r="L184" t="s">
-        <v>38</v>
-      </c>
-      <c r="M184" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N184" t="s">
-        <v>358</v>
-      </c>
-      <c r="O184">
-        <v>200</v>
-      </c>
-      <c r="P184" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q184">
-        <v>55.73</v>
-      </c>
-      <c r="R184" t="s">
-        <v>68</v>
-      </c>
-      <c r="S184" t="s">
-        <v>30</v>
-      </c>
-      <c r="T184" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>353</v>
-      </c>
-      <c r="B185" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" t="s">
-        <v>236</v>
-      </c>
-      <c r="D185" t="s">
-        <v>355</v>
-      </c>
-      <c r="E185" t="s">
-        <v>309</v>
-      </c>
-      <c r="F185" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" t="s">
-        <v>31</v>
-      </c>
-      <c r="H185" t="s">
-        <v>85</v>
-      </c>
-      <c r="I185" t="s">
-        <v>38</v>
-      </c>
-      <c r="J185" t="s">
-        <v>38</v>
-      </c>
-      <c r="K185">
-        <v>2</v>
-      </c>
-      <c r="L185" t="s">
-        <v>38</v>
-      </c>
-      <c r="M185" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N185" t="s">
-        <v>359</v>
-      </c>
-      <c r="O185">
-        <v>400</v>
-      </c>
-      <c r="P185" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q185">
-        <v>59.11</v>
-      </c>
-      <c r="R185" t="s">
-        <v>68</v>
-      </c>
-      <c r="S185" t="s">
-        <v>30</v>
-      </c>
-      <c r="T185" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>353</v>
-      </c>
-      <c r="B186" t="s">
-        <v>354</v>
-      </c>
-      <c r="C186" t="s">
-        <v>236</v>
-      </c>
-      <c r="D186" t="s">
-        <v>355</v>
-      </c>
-      <c r="E186" t="s">
-        <v>309</v>
-      </c>
-      <c r="F186" t="s">
-        <v>29</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
-      </c>
-      <c r="H186" t="s">
-        <v>85</v>
-      </c>
-      <c r="I186" t="s">
-        <v>38</v>
-      </c>
-      <c r="J186" t="s">
-        <v>38</v>
-      </c>
-      <c r="K186">
-        <v>2</v>
-      </c>
-      <c r="L186" t="s">
-        <v>38</v>
-      </c>
-      <c r="M186" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N186" t="s">
-        <v>360</v>
-      </c>
-      <c r="O186">
-        <v>800</v>
-      </c>
-      <c r="P186" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q186">
-        <v>67.36</v>
-      </c>
-      <c r="R186" t="s">
-        <v>68</v>
-      </c>
-      <c r="S186" t="s">
-        <v>30</v>
-      </c>
-      <c r="T186" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>361</v>
-      </c>
-      <c r="B187" t="s">
-        <v>362</v>
-      </c>
-      <c r="C187" t="s">
-        <v>236</v>
-      </c>
-      <c r="D187" t="s">
-        <v>363</v>
-      </c>
-      <c r="E187" t="s">
-        <v>309</v>
-      </c>
-      <c r="F187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
-      <c r="H187" t="s">
-        <v>35</v>
-      </c>
-      <c r="I187" t="s">
-        <v>39</v>
-      </c>
-      <c r="J187" t="s">
-        <v>39</v>
-      </c>
-      <c r="K187">
-        <v>2</v>
-      </c>
-      <c r="L187" t="s">
-        <v>37</v>
-      </c>
-      <c r="M187" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N187" t="s">
-        <v>364</v>
-      </c>
-      <c r="O187">
-        <v>50</v>
-      </c>
-      <c r="P187" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q187">
-        <v>17.64</v>
-      </c>
-      <c r="R187" t="s">
-        <v>68</v>
-      </c>
-      <c r="S187" t="s">
-        <v>30</v>
-      </c>
-      <c r="T187" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>361</v>
-      </c>
-      <c r="B188" t="s">
-        <v>362</v>
-      </c>
-      <c r="C188" t="s">
-        <v>236</v>
-      </c>
-      <c r="D188" t="s">
-        <v>363</v>
-      </c>
-      <c r="E188" t="s">
-        <v>309</v>
-      </c>
-      <c r="F188" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" t="s">
-        <v>34</v>
-      </c>
-      <c r="H188" t="s">
-        <v>35</v>
-      </c>
-      <c r="I188" t="s">
-        <v>39</v>
-      </c>
-      <c r="J188" t="s">
-        <v>39</v>
-      </c>
-      <c r="K188">
-        <v>2</v>
-      </c>
-      <c r="L188" t="s">
-        <v>37</v>
-      </c>
-      <c r="M188" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N188" t="s">
-        <v>365</v>
-      </c>
-      <c r="O188">
-        <v>100</v>
-      </c>
-      <c r="P188" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q188">
-        <v>17.46</v>
-      </c>
-      <c r="R188" t="s">
-        <v>68</v>
-      </c>
-      <c r="S188" t="s">
-        <v>30</v>
-      </c>
-      <c r="T188" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>361</v>
-      </c>
-      <c r="B189" t="s">
-        <v>362</v>
-      </c>
-      <c r="C189" t="s">
-        <v>236</v>
-      </c>
-      <c r="D189" t="s">
-        <v>363</v>
-      </c>
-      <c r="E189" t="s">
-        <v>309</v>
-      </c>
-      <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
-      <c r="H189" t="s">
-        <v>35</v>
-      </c>
-      <c r="I189" t="s">
-        <v>39</v>
-      </c>
-      <c r="J189" t="s">
-        <v>39</v>
-      </c>
-      <c r="K189">
-        <v>2</v>
-      </c>
-      <c r="L189" t="s">
-        <v>37</v>
-      </c>
-      <c r="M189" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N189" t="s">
-        <v>366</v>
-      </c>
-      <c r="O189">
-        <v>200</v>
-      </c>
-      <c r="P189" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q189">
-        <v>20.61</v>
-      </c>
-      <c r="R189" t="s">
-        <v>68</v>
-      </c>
-      <c r="S189" t="s">
-        <v>30</v>
-      </c>
-      <c r="T189" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>361</v>
-      </c>
-      <c r="B190" t="s">
-        <v>362</v>
-      </c>
-      <c r="C190" t="s">
-        <v>236</v>
-      </c>
-      <c r="D190" t="s">
-        <v>363</v>
-      </c>
-      <c r="E190" t="s">
-        <v>309</v>
-      </c>
-      <c r="F190" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" t="s">
-        <v>34</v>
-      </c>
-      <c r="H190" t="s">
-        <v>35</v>
-      </c>
-      <c r="I190" t="s">
-        <v>39</v>
-      </c>
-      <c r="J190" t="s">
-        <v>39</v>
-      </c>
-      <c r="K190">
-        <v>2</v>
-      </c>
-      <c r="L190" t="s">
-        <v>37</v>
-      </c>
-      <c r="M190" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N190" t="s">
-        <v>367</v>
-      </c>
-      <c r="O190">
-        <v>400</v>
-      </c>
-      <c r="P190" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q190">
-        <v>19.45</v>
-      </c>
-      <c r="R190" t="s">
-        <v>68</v>
-      </c>
-      <c r="S190" t="s">
-        <v>30</v>
-      </c>
-      <c r="T190" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>361</v>
-      </c>
-      <c r="B191" t="s">
-        <v>362</v>
-      </c>
-      <c r="C191" t="s">
-        <v>236</v>
-      </c>
-      <c r="D191" t="s">
-        <v>363</v>
-      </c>
-      <c r="E191" t="s">
-        <v>309</v>
-      </c>
-      <c r="F191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G191" t="s">
-        <v>34</v>
-      </c>
-      <c r="H191" t="s">
-        <v>35</v>
-      </c>
-      <c r="I191" t="s">
-        <v>39</v>
-      </c>
-      <c r="J191" t="s">
-        <v>39</v>
-      </c>
-      <c r="K191">
-        <v>2</v>
-      </c>
-      <c r="L191" t="s">
-        <v>37</v>
-      </c>
-      <c r="M191" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N191" t="s">
-        <v>368</v>
-      </c>
-      <c r="O191">
-        <v>800</v>
-      </c>
-      <c r="P191" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q191">
-        <v>27.55</v>
-      </c>
-      <c r="R191" t="s">
-        <v>68</v>
-      </c>
-      <c r="S191" t="s">
-        <v>30</v>
-      </c>
-      <c r="T191" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>369</v>
-      </c>
-      <c r="B192" t="s">
-        <v>370</v>
-      </c>
-      <c r="C192" t="s">
-        <v>236</v>
-      </c>
-      <c r="D192" t="s">
-        <v>363</v>
-      </c>
-      <c r="E192" t="s">
-        <v>309</v>
-      </c>
-      <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
-      <c r="H192" t="s">
-        <v>35</v>
-      </c>
-      <c r="I192" t="s">
-        <v>39</v>
-      </c>
-      <c r="J192" t="s">
-        <v>39</v>
-      </c>
-      <c r="K192">
-        <v>3</v>
-      </c>
-      <c r="L192" t="s">
-        <v>39</v>
-      </c>
-      <c r="M192" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N192" t="s">
-        <v>371</v>
-      </c>
-      <c r="O192">
-        <v>50</v>
-      </c>
-      <c r="P192" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q192">
-        <v>36.35</v>
-      </c>
-      <c r="R192" t="s">
-        <v>68</v>
-      </c>
-      <c r="S192" t="s">
-        <v>30</v>
-      </c>
-      <c r="T192" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>369</v>
-      </c>
-      <c r="B193" t="s">
-        <v>370</v>
-      </c>
-      <c r="C193" t="s">
-        <v>236</v>
-      </c>
-      <c r="D193" t="s">
-        <v>363</v>
-      </c>
-      <c r="E193" t="s">
-        <v>309</v>
-      </c>
-      <c r="F193" t="s">
-        <v>28</v>
-      </c>
-      <c r="G193" t="s">
-        <v>31</v>
-      </c>
-      <c r="H193" t="s">
-        <v>35</v>
-      </c>
-      <c r="I193" t="s">
-        <v>39</v>
-      </c>
-      <c r="J193" t="s">
-        <v>39</v>
-      </c>
-      <c r="K193">
-        <v>3</v>
-      </c>
-      <c r="L193" t="s">
-        <v>39</v>
-      </c>
-      <c r="M193" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N193" t="s">
-        <v>372</v>
-      </c>
-      <c r="O193">
-        <v>100</v>
-      </c>
-      <c r="P193" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q193">
-        <v>36.76</v>
-      </c>
-      <c r="R193" t="s">
-        <v>68</v>
-      </c>
-      <c r="S193" t="s">
-        <v>30</v>
-      </c>
-      <c r="T193" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>369</v>
-      </c>
-      <c r="B194" t="s">
-        <v>370</v>
-      </c>
-      <c r="C194" t="s">
-        <v>236</v>
-      </c>
-      <c r="D194" t="s">
-        <v>363</v>
-      </c>
-      <c r="E194" t="s">
-        <v>309</v>
-      </c>
-      <c r="F194" t="s">
-        <v>28</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
-      <c r="H194" t="s">
-        <v>35</v>
-      </c>
-      <c r="I194" t="s">
-        <v>39</v>
-      </c>
-      <c r="J194" t="s">
-        <v>39</v>
-      </c>
-      <c r="K194">
-        <v>3</v>
-      </c>
-      <c r="L194" t="s">
-        <v>39</v>
-      </c>
-      <c r="M194" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N194" t="s">
-        <v>373</v>
-      </c>
-      <c r="O194">
-        <v>200</v>
-      </c>
-      <c r="P194" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q194">
-        <v>37.54</v>
-      </c>
-      <c r="R194" t="s">
-        <v>68</v>
-      </c>
-      <c r="S194" t="s">
-        <v>30</v>
-      </c>
-      <c r="T194" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>369</v>
-      </c>
-      <c r="B195" t="s">
-        <v>370</v>
-      </c>
-      <c r="C195" t="s">
-        <v>236</v>
-      </c>
-      <c r="D195" t="s">
-        <v>363</v>
-      </c>
-      <c r="E195" t="s">
-        <v>309</v>
-      </c>
-      <c r="F195" t="s">
-        <v>28</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
-      </c>
-      <c r="H195" t="s">
-        <v>35</v>
-      </c>
-      <c r="I195" t="s">
-        <v>39</v>
-      </c>
-      <c r="J195" t="s">
-        <v>39</v>
-      </c>
-      <c r="K195">
-        <v>3</v>
-      </c>
-      <c r="L195" t="s">
-        <v>39</v>
-      </c>
-      <c r="M195" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N195" t="s">
-        <v>374</v>
-      </c>
-      <c r="O195">
-        <v>400</v>
-      </c>
-      <c r="P195" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q195">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="R195" t="s">
-        <v>68</v>
-      </c>
-      <c r="S195" t="s">
-        <v>30</v>
-      </c>
-      <c r="T195" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>369</v>
-      </c>
-      <c r="B196" t="s">
-        <v>370</v>
-      </c>
-      <c r="C196" t="s">
-        <v>236</v>
-      </c>
-      <c r="D196" t="s">
-        <v>363</v>
-      </c>
-      <c r="E196" t="s">
-        <v>309</v>
-      </c>
-      <c r="F196" t="s">
-        <v>28</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
-      </c>
-      <c r="H196" t="s">
-        <v>35</v>
-      </c>
-      <c r="I196" t="s">
-        <v>39</v>
-      </c>
-      <c r="J196" t="s">
-        <v>39</v>
-      </c>
-      <c r="K196">
-        <v>3</v>
-      </c>
-      <c r="L196" t="s">
-        <v>39</v>
-      </c>
-      <c r="M196" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N196" t="s">
-        <v>375</v>
-      </c>
-      <c r="O196">
-        <v>800</v>
-      </c>
-      <c r="P196" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q196">
-        <v>41.82</v>
-      </c>
-      <c r="R196" t="s">
-        <v>68</v>
-      </c>
-      <c r="S196" t="s">
-        <v>30</v>
-      </c>
-      <c r="T196" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>376</v>
-      </c>
-      <c r="B197" t="s">
-        <v>377</v>
-      </c>
-      <c r="C197" t="s">
-        <v>236</v>
-      </c>
-      <c r="D197" t="s">
-        <v>378</v>
-      </c>
-      <c r="E197" t="s">
-        <v>309</v>
-      </c>
-      <c r="F197" t="s">
-        <v>29</v>
-      </c>
-      <c r="G197" t="s">
-        <v>31</v>
-      </c>
-      <c r="H197" t="s">
-        <v>36</v>
-      </c>
-      <c r="I197" t="s">
-        <v>37</v>
-      </c>
-      <c r="J197" t="s">
-        <v>37</v>
-      </c>
-      <c r="K197">
-        <v>5</v>
-      </c>
-      <c r="L197" t="s">
-        <v>39</v>
-      </c>
-      <c r="M197" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N197" t="s">
-        <v>379</v>
-      </c>
-      <c r="O197">
-        <v>50</v>
-      </c>
-      <c r="P197" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q197">
-        <v>58.89</v>
-      </c>
-      <c r="R197" t="s">
-        <v>68</v>
-      </c>
-      <c r="S197" t="s">
-        <v>30</v>
-      </c>
-      <c r="T197" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>376</v>
-      </c>
-      <c r="B198" t="s">
-        <v>377</v>
-      </c>
-      <c r="C198" t="s">
-        <v>236</v>
-      </c>
-      <c r="D198" t="s">
-        <v>378</v>
-      </c>
-      <c r="E198" t="s">
-        <v>309</v>
-      </c>
-      <c r="F198" t="s">
-        <v>29</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
-      </c>
-      <c r="H198" t="s">
-        <v>36</v>
-      </c>
-      <c r="I198" t="s">
-        <v>37</v>
-      </c>
-      <c r="J198" t="s">
-        <v>37</v>
-      </c>
-      <c r="K198">
-        <v>5</v>
-      </c>
-      <c r="L198" t="s">
-        <v>39</v>
-      </c>
-      <c r="M198" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N198" t="s">
-        <v>380</v>
-      </c>
-      <c r="O198">
-        <v>100</v>
-      </c>
-      <c r="P198" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q198">
-        <v>56.35</v>
-      </c>
-      <c r="R198" t="s">
-        <v>68</v>
-      </c>
-      <c r="S198" t="s">
-        <v>30</v>
-      </c>
-      <c r="T198" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>376</v>
-      </c>
-      <c r="B199" t="s">
-        <v>377</v>
-      </c>
-      <c r="C199" t="s">
-        <v>236</v>
-      </c>
-      <c r="D199" t="s">
-        <v>378</v>
-      </c>
-      <c r="E199" t="s">
-        <v>309</v>
-      </c>
-      <c r="F199" t="s">
-        <v>29</v>
-      </c>
-      <c r="G199" t="s">
-        <v>31</v>
-      </c>
-      <c r="H199" t="s">
-        <v>36</v>
-      </c>
-      <c r="I199" t="s">
-        <v>37</v>
-      </c>
-      <c r="J199" t="s">
-        <v>37</v>
-      </c>
-      <c r="K199">
-        <v>5</v>
-      </c>
-      <c r="L199" t="s">
-        <v>39</v>
-      </c>
-      <c r="M199" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N199" t="s">
-        <v>381</v>
-      </c>
-      <c r="O199">
-        <v>200</v>
-      </c>
-      <c r="P199" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q199">
-        <v>59.1</v>
-      </c>
-      <c r="R199" t="s">
-        <v>68</v>
-      </c>
-      <c r="S199" t="s">
-        <v>30</v>
-      </c>
-      <c r="T199" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>376</v>
-      </c>
-      <c r="B200" t="s">
-        <v>377</v>
-      </c>
-      <c r="C200" t="s">
-        <v>236</v>
-      </c>
-      <c r="D200" t="s">
-        <v>378</v>
-      </c>
-      <c r="E200" t="s">
-        <v>309</v>
-      </c>
-      <c r="F200" t="s">
-        <v>29</v>
-      </c>
-      <c r="G200" t="s">
-        <v>31</v>
-      </c>
-      <c r="H200" t="s">
-        <v>36</v>
-      </c>
-      <c r="I200" t="s">
-        <v>37</v>
-      </c>
-      <c r="J200" t="s">
-        <v>37</v>
-      </c>
-      <c r="K200">
-        <v>5</v>
-      </c>
-      <c r="L200" t="s">
-        <v>39</v>
-      </c>
-      <c r="M200" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N200" t="s">
-        <v>382</v>
-      </c>
-      <c r="O200">
-        <v>400</v>
-      </c>
-      <c r="P200" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q200">
-        <v>58.83</v>
-      </c>
-      <c r="R200" t="s">
-        <v>68</v>
-      </c>
-      <c r="S200" t="s">
-        <v>30</v>
-      </c>
-      <c r="T200" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>376</v>
-      </c>
-      <c r="B201" t="s">
-        <v>377</v>
-      </c>
-      <c r="C201" t="s">
-        <v>236</v>
-      </c>
-      <c r="D201" t="s">
-        <v>378</v>
-      </c>
-      <c r="E201" t="s">
-        <v>309</v>
-      </c>
-      <c r="F201" t="s">
-        <v>29</v>
-      </c>
-      <c r="G201" t="s">
-        <v>31</v>
-      </c>
-      <c r="H201" t="s">
-        <v>36</v>
-      </c>
-      <c r="I201" t="s">
-        <v>37</v>
-      </c>
-      <c r="J201" t="s">
-        <v>37</v>
-      </c>
-      <c r="K201">
-        <v>5</v>
-      </c>
-      <c r="L201" t="s">
-        <v>39</v>
-      </c>
-      <c r="M201" s="2">
-        <v>45962</v>
-      </c>
-      <c r="N201" t="s">
-        <v>383</v>
-      </c>
-      <c r="O201">
-        <v>800</v>
-      </c>
-      <c r="P201" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q201">
-        <v>60.27</v>
-      </c>
-      <c r="R201" t="s">
-        <v>68</v>
-      </c>
-      <c r="S201" t="s">
-        <v>30</v>
-      </c>
-      <c r="T201" t="s">
         <v>69</v>
       </c>
     </row>
